--- a/database/industries/lastic/pekavir/product/quarterly_seprated.xlsx
+++ b/database/industries/lastic/pekavir/product/quarterly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekavir\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9CD098-0B4C-4E40-A4CC-386B05DA5FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D399D6-6C57-48E2-920C-F624C7AC7AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="48">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>پکویر-کویر تایر</t>
@@ -35,21 +35,6 @@
   </si>
   <si>
     <t>مقدار فروش</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/03</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/06</t>
@@ -657,16 +642,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N90"/>
+  <dimension ref="B1:I90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="14" width="20" customWidth="1"/>
+    <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -675,13 +660,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -692,13 +672,8 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -709,13 +684,8 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -724,13 +694,8 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -741,13 +706,8 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -758,13 +718,8 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -773,13 +728,8 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -800,23 +750,8 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -825,15 +760,10 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -842,169 +772,104 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11">
-        <v>7359</v>
+      <c r="E11" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F11" s="11">
-        <v>190458</v>
+        <v>8322</v>
       </c>
       <c r="G11" s="11">
-        <v>-181999</v>
+        <v>7</v>
       </c>
       <c r="H11" s="11">
-        <v>6512</v>
+        <v>16417</v>
       </c>
       <c r="I11" s="11">
-        <v>7951</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="11">
-        <v>8322</v>
-      </c>
-      <c r="L11" s="11">
-        <v>7</v>
-      </c>
-      <c r="M11" s="11">
-        <v>16417</v>
-      </c>
-      <c r="N11" s="11">
         <v>7487</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F12" s="13">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="G12" s="13">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="H12" s="13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I12" s="13">
-        <v>2</v>
-      </c>
-      <c r="J12" s="13">
-        <v>4</v>
-      </c>
-      <c r="K12" s="13">
-        <v>4</v>
-      </c>
-      <c r="L12" s="13">
-        <v>0</v>
-      </c>
-      <c r="M12" s="13">
-        <v>0</v>
-      </c>
-      <c r="N12" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>18</v>
+      <c r="E13" s="11">
+        <v>21394</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="11">
-        <v>21394</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15">
-        <v>7376</v>
+        <v>21398</v>
       </c>
       <c r="F14" s="15">
-        <v>190491</v>
+        <v>8326</v>
       </c>
       <c r="G14" s="15">
-        <v>-181956</v>
+        <v>7</v>
       </c>
       <c r="H14" s="15">
-        <v>6519</v>
+        <v>16417</v>
       </c>
       <c r="I14" s="15">
-        <v>7953</v>
-      </c>
-      <c r="J14" s="15">
-        <v>21398</v>
-      </c>
-      <c r="K14" s="15">
-        <v>8326</v>
-      </c>
-      <c r="L14" s="15">
-        <v>7</v>
-      </c>
-      <c r="M14" s="15">
-        <v>16417</v>
-      </c>
-      <c r="N14" s="15">
         <v>7487</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1013,93 +878,58 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="11">
-        <v>0</v>
-      </c>
-      <c r="F16" s="11">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0</v>
-      </c>
-      <c r="H16" s="11" t="s">
+      <c r="E16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="11">
+        <v>12</v>
+      </c>
+      <c r="I16" s="11">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" s="11">
-        <v>12</v>
-      </c>
-      <c r="N16" s="11">
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13">
-        <v>0</v>
-      </c>
-      <c r="F17" s="13">
-        <v>0</v>
-      </c>
-      <c r="G17" s="13">
-        <v>0</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N17" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -1113,30 +943,15 @@
         <v>0</v>
       </c>
       <c r="H18" s="17">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I18" s="17">
-        <v>0</v>
-      </c>
-      <c r="J18" s="17">
-        <v>0</v>
-      </c>
-      <c r="K18" s="17">
-        <v>0</v>
-      </c>
-      <c r="L18" s="17">
-        <v>0</v>
-      </c>
-      <c r="M18" s="17">
-        <v>12</v>
-      </c>
-      <c r="N18" s="17">
         <v>-12</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -1145,15 +960,10 @@
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -1172,64 +982,34 @@
       <c r="I20" s="17">
         <v>0</v>
       </c>
-      <c r="J20" s="17">
-        <v>0</v>
-      </c>
-      <c r="K20" s="17">
-        <v>0</v>
-      </c>
-      <c r="L20" s="17">
-        <v>0</v>
-      </c>
-      <c r="M20" s="17">
-        <v>0</v>
-      </c>
-      <c r="N20" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D21" s="15"/>
-      <c r="E21" s="15">
-        <v>0</v>
-      </c>
-      <c r="F21" s="15">
-        <v>7139</v>
-      </c>
-      <c r="G21" s="15">
-        <v>0</v>
-      </c>
-      <c r="H21" s="15">
-        <v>0</v>
-      </c>
-      <c r="I21" s="15">
-        <v>-27</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N21" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -1239,8 +1019,8 @@
       <c r="F22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="17">
-        <v>0</v>
+      <c r="G22" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="H22" s="17">
         <v>0</v>
@@ -1248,60 +1028,30 @@
       <c r="I22" s="17">
         <v>0</v>
       </c>
-      <c r="J22" s="17">
-        <v>0</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M22" s="17">
-        <v>0</v>
-      </c>
-      <c r="N22" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15">
-        <v>7376</v>
+        <v>21398</v>
       </c>
       <c r="F23" s="15">
-        <v>197630</v>
+        <v>8326</v>
       </c>
       <c r="G23" s="15">
-        <v>-181956</v>
+        <v>7</v>
       </c>
       <c r="H23" s="15">
-        <v>6519</v>
+        <v>16429</v>
       </c>
       <c r="I23" s="15">
-        <v>7925</v>
-      </c>
-      <c r="J23" s="15">
-        <v>21398</v>
-      </c>
-      <c r="K23" s="15">
-        <v>8326</v>
-      </c>
-      <c r="L23" s="15">
-        <v>7</v>
-      </c>
-      <c r="M23" s="15">
-        <v>16429</v>
-      </c>
-      <c r="N23" s="15">
         <v>7475</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1310,13 +1060,8 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1325,13 +1070,8 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1340,15 +1080,10 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1367,23 +1102,8 @@
       <c r="I27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1392,15 +1112,10 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -1409,169 +1124,104 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11">
-        <v>1968059</v>
+      <c r="E30" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F30" s="11">
-        <v>2800066</v>
+        <v>5463220</v>
       </c>
       <c r="G30" s="11">
-        <v>4280006</v>
+        <v>5087108</v>
       </c>
       <c r="H30" s="11">
-        <v>4134589</v>
+        <v>6932461</v>
       </c>
       <c r="I30" s="11">
-        <v>5733016</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" s="11">
-        <v>5463220</v>
-      </c>
-      <c r="L30" s="11">
-        <v>5087108</v>
-      </c>
-      <c r="M30" s="11">
-        <v>6932461</v>
-      </c>
-      <c r="N30" s="11">
         <v>6513542</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13">
-        <v>3405</v>
+        <v>2184</v>
       </c>
       <c r="F31" s="13">
-        <v>8831</v>
+        <v>1809</v>
       </c>
       <c r="G31" s="13">
-        <v>19960</v>
+        <v>0</v>
       </c>
       <c r="H31" s="13">
-        <v>3217</v>
+        <v>0</v>
       </c>
       <c r="I31" s="13">
-        <v>762</v>
-      </c>
-      <c r="J31" s="13">
-        <v>2184</v>
-      </c>
-      <c r="K31" s="13">
-        <v>1809</v>
-      </c>
-      <c r="L31" s="13">
-        <v>0</v>
-      </c>
-      <c r="M31" s="13">
-        <v>0</v>
-      </c>
-      <c r="N31" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>18</v>
+      <c r="E32" s="11">
+        <v>14428548</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="11">
-        <v>14428548</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N32" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15">
-        <v>1971464</v>
+        <v>14430732</v>
       </c>
       <c r="F33" s="15">
-        <v>2808897</v>
+        <v>5465029</v>
       </c>
       <c r="G33" s="15">
-        <v>4299966</v>
+        <v>5087108</v>
       </c>
       <c r="H33" s="15">
-        <v>4137806</v>
+        <v>6932461</v>
       </c>
       <c r="I33" s="15">
-        <v>5733778</v>
-      </c>
-      <c r="J33" s="15">
-        <v>14430732</v>
-      </c>
-      <c r="K33" s="15">
-        <v>5465029</v>
-      </c>
-      <c r="L33" s="15">
-        <v>5087108</v>
-      </c>
-      <c r="M33" s="15">
-        <v>6932461</v>
-      </c>
-      <c r="N33" s="15">
         <v>6513543</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -1580,93 +1230,58 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D35" s="11"/>
-      <c r="E35" s="11">
-        <v>0</v>
-      </c>
-      <c r="F35" s="11">
-        <v>0</v>
-      </c>
-      <c r="G35" s="11">
-        <v>0</v>
-      </c>
-      <c r="H35" s="11" t="s">
+      <c r="E35" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="11">
+        <v>25057</v>
+      </c>
+      <c r="I35" s="11">
+        <v>54297</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M35" s="11">
-        <v>25057</v>
-      </c>
-      <c r="N35" s="11">
-        <v>54297</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13">
-        <v>0</v>
-      </c>
-      <c r="F36" s="13">
-        <v>0</v>
-      </c>
-      <c r="G36" s="13">
-        <v>0</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L36" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M36" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N36" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B37" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -1680,30 +1295,15 @@
         <v>0</v>
       </c>
       <c r="H37" s="17">
-        <v>0</v>
+        <v>25057</v>
       </c>
       <c r="I37" s="17">
-        <v>0</v>
-      </c>
-      <c r="J37" s="17">
-        <v>0</v>
-      </c>
-      <c r="K37" s="17">
-        <v>0</v>
-      </c>
-      <c r="L37" s="17">
-        <v>0</v>
-      </c>
-      <c r="M37" s="17">
-        <v>25057</v>
-      </c>
-      <c r="N37" s="17">
         <v>54297</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
@@ -1712,15 +1312,10 @@
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
@@ -1739,138 +1334,78 @@
       <c r="I39" s="17">
         <v>0</v>
       </c>
-      <c r="J39" s="17">
-        <v>0</v>
-      </c>
-      <c r="K39" s="17">
-        <v>0</v>
-      </c>
-      <c r="L39" s="17">
-        <v>0</v>
-      </c>
-      <c r="M39" s="17">
-        <v>0</v>
-      </c>
-      <c r="N39" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D40" s="15"/>
-      <c r="E40" s="15">
-        <v>0</v>
-      </c>
-      <c r="F40" s="15">
-        <v>1954</v>
-      </c>
-      <c r="G40" s="15">
-        <v>0</v>
-      </c>
-      <c r="H40" s="15">
-        <v>0</v>
-      </c>
-      <c r="I40" s="15">
-        <v>-11860</v>
-      </c>
-      <c r="J40" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K40" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L40" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M40" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N40" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E40" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="17">
         <v>0</v>
       </c>
       <c r="F41" s="17">
-        <v>9074</v>
-      </c>
-      <c r="G41" s="17">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="H41" s="17">
         <v>0</v>
       </c>
       <c r="I41" s="17">
-        <v>-203</v>
-      </c>
-      <c r="J41" s="17">
-        <v>0</v>
-      </c>
-      <c r="K41" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L41" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M41" s="17">
-        <v>0</v>
-      </c>
-      <c r="N41" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15">
-        <v>1971464</v>
+        <v>14430732</v>
       </c>
       <c r="F42" s="15">
-        <v>2819925</v>
+        <v>5465029</v>
       </c>
       <c r="G42" s="15">
-        <v>4299966</v>
+        <v>5087108</v>
       </c>
       <c r="H42" s="15">
-        <v>4137806</v>
+        <v>6957518</v>
       </c>
       <c r="I42" s="15">
-        <v>5721715</v>
-      </c>
-      <c r="J42" s="15">
-        <v>14430732</v>
-      </c>
-      <c r="K42" s="15">
-        <v>5465029</v>
-      </c>
-      <c r="L42" s="15">
-        <v>5087108</v>
-      </c>
-      <c r="M42" s="15">
-        <v>6957518</v>
-      </c>
-      <c r="N42" s="15">
         <v>6567840</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1879,13 +1414,8 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1894,13 +1424,8 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1909,15 +1434,10 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1936,23 +1456,8 @@
       <c r="I46" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J46" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N46" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1961,15 +1466,10 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -1978,132 +1478,82 @@
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D49" s="11"/>
-      <c r="E49" s="11">
-        <v>267435657</v>
+      <c r="E49" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F49" s="11">
-        <v>14226395</v>
+        <v>656479212</v>
       </c>
       <c r="G49" s="11">
-        <v>-23516646</v>
+        <v>686797353854</v>
       </c>
       <c r="H49" s="11">
-        <v>634918458</v>
+        <v>422283860</v>
       </c>
       <c r="I49" s="11">
-        <v>721026161</v>
-      </c>
-      <c r="J49" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K49" s="11">
-        <v>669395881</v>
-      </c>
-      <c r="L49" s="11">
-        <v>686797353854</v>
-      </c>
-      <c r="M49" s="11">
-        <v>422283860</v>
-      </c>
-      <c r="N49" s="11">
         <v>869980232</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>200294118</v>
+        <v>546000000</v>
       </c>
       <c r="F50" s="13">
-        <v>267636364</v>
-      </c>
-      <c r="G50" s="13">
-        <v>464186047</v>
-      </c>
-      <c r="H50" s="13">
-        <v>459571429</v>
-      </c>
-      <c r="I50" s="13">
-        <v>482278481</v>
-      </c>
-      <c r="J50" s="13">
-        <v>494117647</v>
-      </c>
-      <c r="K50" s="13">
         <v>452250000</v>
       </c>
-      <c r="L50" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M50" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N50" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G50" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D51" s="11"/>
-      <c r="E51" s="11" t="s">
-        <v>18</v>
+      <c r="E51" s="11">
+        <v>674420305</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J51" s="11">
-        <v>674420305</v>
-      </c>
-      <c r="K51" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L51" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M51" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N51" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -2112,91 +1562,56 @@
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J53" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K53" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L53" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M53" s="11">
+        <v>13</v>
+      </c>
+      <c r="H53" s="11">
         <v>2088083333</v>
       </c>
-      <c r="N53" s="11">
+      <c r="I53" s="11">
         <v>-4524750000</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J54" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K54" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L54" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M54" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N54" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2205,13 +1620,8 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2220,13 +1630,8 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2235,15 +1640,10 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-    </row>
-    <row r="58" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -2262,23 +1662,8 @@
       <c r="I58" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J58" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K58" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L58" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M58" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N58" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2287,15 +1672,10 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -2304,169 +1684,104 @@
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="11">
-        <v>4348164</v>
+      <c r="E61" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F61" s="11">
-        <v>-1762495</v>
+        <v>-14621235</v>
       </c>
       <c r="G61" s="11">
-        <v>-2585669</v>
+        <v>-3989842</v>
       </c>
       <c r="H61" s="11">
-        <v>-2706033</v>
+        <v>-6242002</v>
       </c>
       <c r="I61" s="11">
-        <v>-3973297</v>
-      </c>
-      <c r="J61" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K61" s="11">
-        <v>-14621235</v>
-      </c>
-      <c r="L61" s="11">
-        <v>-3989842</v>
-      </c>
-      <c r="M61" s="11">
-        <v>-6242002</v>
-      </c>
-      <c r="N61" s="11">
         <v>-5414506</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
-        <v>19116</v>
+        <v>-1190</v>
       </c>
       <c r="F62" s="13">
-        <v>-9643</v>
+        <v>-996</v>
       </c>
       <c r="G62" s="13">
-        <v>-9473</v>
+        <v>0</v>
       </c>
       <c r="H62" s="13">
-        <v>-5293</v>
+        <v>0</v>
       </c>
       <c r="I62" s="13">
-        <v>2983</v>
-      </c>
-      <c r="J62" s="13">
-        <v>-1190</v>
-      </c>
-      <c r="K62" s="13">
-        <v>-996</v>
-      </c>
-      <c r="L62" s="13">
-        <v>0</v>
-      </c>
-      <c r="M62" s="13">
-        <v>0</v>
-      </c>
-      <c r="N62" s="13">
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D63" s="11"/>
-      <c r="E63" s="11" t="s">
-        <v>18</v>
+      <c r="E63" s="11">
+        <v>-10207518</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J63" s="11">
-        <v>-10207518</v>
-      </c>
-      <c r="K63" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L63" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M63" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N63" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15">
-        <v>4367280</v>
+        <v>-10208708</v>
       </c>
       <c r="F64" s="15">
-        <v>-1772138</v>
+        <v>-14622231</v>
       </c>
       <c r="G64" s="15">
-        <v>-2595142</v>
+        <v>-3989842</v>
       </c>
       <c r="H64" s="15">
-        <v>-2711326</v>
+        <v>-6242002</v>
       </c>
       <c r="I64" s="15">
-        <v>-3970314</v>
-      </c>
-      <c r="J64" s="15">
-        <v>-10208708</v>
-      </c>
-      <c r="K64" s="15">
-        <v>-14622231</v>
-      </c>
-      <c r="L64" s="15">
-        <v>-3989842</v>
-      </c>
-      <c r="M64" s="15">
-        <v>-6242002</v>
-      </c>
-      <c r="N64" s="15">
         <v>-5414507</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -2475,93 +1790,58 @@
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D66" s="11"/>
-      <c r="E66" s="11">
-        <v>0</v>
-      </c>
-      <c r="F66" s="11">
-        <v>0</v>
-      </c>
-      <c r="G66" s="11">
-        <v>0</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I66" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J66" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K66" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L66" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M66" s="11">
+      <c r="E66" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" s="11">
         <v>-19864</v>
       </c>
-      <c r="N66" s="11">
+      <c r="I66" s="11">
         <v>-72607</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D67" s="13"/>
-      <c r="E67" s="13">
-        <v>0</v>
-      </c>
-      <c r="F67" s="13">
-        <v>0</v>
-      </c>
-      <c r="G67" s="13">
-        <v>0</v>
+      <c r="E67" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J67" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K67" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L67" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M67" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N67" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
@@ -2575,30 +1855,15 @@
         <v>0</v>
       </c>
       <c r="H68" s="17">
-        <v>0</v>
+        <v>-19864</v>
       </c>
       <c r="I68" s="17">
-        <v>0</v>
-      </c>
-      <c r="J68" s="17">
-        <v>0</v>
-      </c>
-      <c r="K68" s="17">
-        <v>0</v>
-      </c>
-      <c r="L68" s="17">
-        <v>0</v>
-      </c>
-      <c r="M68" s="17">
-        <v>-19864</v>
-      </c>
-      <c r="N68" s="17">
         <v>-72607</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
@@ -2607,15 +1872,10 @@
       <c r="G69" s="19"/>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="19"/>
-      <c r="N69" s="19"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
@@ -2634,67 +1894,37 @@
       <c r="I70" s="17">
         <v>0</v>
       </c>
-      <c r="J70" s="17">
-        <v>0</v>
-      </c>
-      <c r="K70" s="17">
-        <v>0</v>
-      </c>
-      <c r="L70" s="17">
-        <v>0</v>
-      </c>
-      <c r="M70" s="17">
-        <v>0</v>
-      </c>
-      <c r="N70" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D71" s="15"/>
-      <c r="E71" s="15">
-        <v>0</v>
-      </c>
-      <c r="F71" s="15">
-        <v>0</v>
-      </c>
-      <c r="G71" s="15">
-        <v>0</v>
-      </c>
-      <c r="H71" s="15">
-        <v>0</v>
-      </c>
-      <c r="I71" s="15">
-        <v>11842</v>
-      </c>
-      <c r="J71" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K71" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="L71" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M71" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N71" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="E71" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I71" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="17">
@@ -2703,8 +1933,8 @@
       <c r="F72" s="17">
         <v>0</v>
       </c>
-      <c r="G72" s="17">
-        <v>0</v>
+      <c r="G72" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="H72" s="17">
         <v>0</v>
@@ -2712,60 +1942,30 @@
       <c r="I72" s="17">
         <v>0</v>
       </c>
-      <c r="J72" s="17">
-        <v>0</v>
-      </c>
-      <c r="K72" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L72" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M72" s="17">
-        <v>0</v>
-      </c>
-      <c r="N72" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15">
-        <v>4367280</v>
+        <v>-10208708</v>
       </c>
       <c r="F73" s="15">
-        <v>-1772138</v>
+        <v>-14622231</v>
       </c>
       <c r="G73" s="15">
-        <v>-2595142</v>
+        <v>-3989842</v>
       </c>
       <c r="H73" s="15">
-        <v>-2711326</v>
+        <v>-6261866</v>
       </c>
       <c r="I73" s="15">
-        <v>-3958472</v>
-      </c>
-      <c r="J73" s="15">
-        <v>-10208708</v>
-      </c>
-      <c r="K73" s="15">
-        <v>-14622231</v>
-      </c>
-      <c r="L73" s="15">
-        <v>-3989842</v>
-      </c>
-      <c r="M73" s="15">
-        <v>-6261866</v>
-      </c>
-      <c r="N73" s="15">
         <v>-5487114</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2774,13 +1974,8 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2789,13 +1984,8 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2804,15 +1994,10 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-    </row>
-    <row r="77" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -2831,23 +2016,8 @@
       <c r="I77" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J77" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K77" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L77" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M77" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N77" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2856,15 +2026,10 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -2873,169 +2038,104 @@
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="9"/>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D80" s="11"/>
-      <c r="E80" s="11">
-        <v>-2742935</v>
+      <c r="E80" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="F80" s="11">
-        <v>1048598</v>
+        <v>5270533</v>
       </c>
       <c r="G80" s="11">
-        <v>1694337</v>
+        <v>1097266</v>
       </c>
       <c r="H80" s="11">
-        <v>1428556</v>
+        <v>690459</v>
       </c>
       <c r="I80" s="11">
-        <v>1759719</v>
-      </c>
-      <c r="J80" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K80" s="11">
-        <v>5270533</v>
-      </c>
-      <c r="L80" s="11">
-        <v>1097266</v>
-      </c>
-      <c r="M80" s="11">
-        <v>690459</v>
-      </c>
-      <c r="N80" s="11">
         <v>1099036</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
-        <v>-9676</v>
+        <v>994</v>
       </c>
       <c r="F81" s="13">
-        <v>-811</v>
+        <v>813</v>
       </c>
       <c r="G81" s="13">
-        <v>10487</v>
+        <v>0</v>
       </c>
       <c r="H81" s="13">
-        <v>-2076</v>
+        <v>0</v>
       </c>
       <c r="I81" s="13">
-        <v>3745</v>
-      </c>
-      <c r="J81" s="13">
-        <v>994</v>
-      </c>
-      <c r="K81" s="13">
-        <v>813</v>
-      </c>
-      <c r="L81" s="13">
-        <v>0</v>
-      </c>
-      <c r="M81" s="13">
-        <v>0</v>
-      </c>
-      <c r="N81" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D82" s="11"/>
-      <c r="E82" s="11" t="s">
-        <v>18</v>
+      <c r="E82" s="11">
+        <v>4221030</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J82" s="11">
-        <v>4221030</v>
-      </c>
-      <c r="K82" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L82" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M82" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N82" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15">
-        <v>-2752611</v>
+        <v>4222024</v>
       </c>
       <c r="F83" s="15">
-        <v>1047787</v>
+        <v>5271346</v>
       </c>
       <c r="G83" s="15">
-        <v>1704824</v>
+        <v>1097266</v>
       </c>
       <c r="H83" s="15">
-        <v>1426480</v>
+        <v>690459</v>
       </c>
       <c r="I83" s="15">
-        <v>1763464</v>
-      </c>
-      <c r="J83" s="15">
-        <v>4222024</v>
-      </c>
-      <c r="K83" s="15">
-        <v>5271346</v>
-      </c>
-      <c r="L83" s="15">
-        <v>1097266</v>
-      </c>
-      <c r="M83" s="15">
-        <v>690459</v>
-      </c>
-      <c r="N83" s="15">
         <v>1099036</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
@@ -3044,93 +2144,58 @@
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
-      <c r="J84" s="9"/>
-      <c r="K84" s="9"/>
-      <c r="L84" s="9"/>
-      <c r="M84" s="9"/>
-      <c r="N84" s="9"/>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D85" s="11"/>
-      <c r="E85" s="11">
-        <v>0</v>
-      </c>
-      <c r="F85" s="11">
-        <v>0</v>
-      </c>
-      <c r="G85" s="11">
-        <v>0</v>
-      </c>
-      <c r="H85" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I85" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J85" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K85" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="L85" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M85" s="11">
+      <c r="E85" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="11">
         <v>5193</v>
       </c>
-      <c r="N85" s="11">
+      <c r="I85" s="11">
         <v>-18310</v>
       </c>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D86" s="13"/>
-      <c r="E86" s="13">
-        <v>0</v>
-      </c>
-      <c r="F86" s="13">
-        <v>0</v>
-      </c>
-      <c r="G86" s="13">
-        <v>0</v>
+      <c r="E86" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J86" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K86" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="L86" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M86" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N86" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
@@ -3144,30 +2209,15 @@
         <v>0</v>
       </c>
       <c r="H87" s="17">
-        <v>0</v>
+        <v>5193</v>
       </c>
       <c r="I87" s="17">
-        <v>0</v>
-      </c>
-      <c r="J87" s="17">
-        <v>0</v>
-      </c>
-      <c r="K87" s="17">
-        <v>0</v>
-      </c>
-      <c r="L87" s="17">
-        <v>0</v>
-      </c>
-      <c r="M87" s="17">
-        <v>5193</v>
-      </c>
-      <c r="N87" s="17">
         <v>-18310</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
@@ -3176,15 +2226,10 @@
       <c r="G88" s="19"/>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
-      <c r="J88" s="19"/>
-      <c r="K88" s="19"/>
-      <c r="L88" s="19"/>
-      <c r="M88" s="19"/>
-      <c r="N88" s="19"/>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C89" s="17"/>
       <c r="D89" s="17"/>
@@ -3203,56 +2248,26 @@
       <c r="I89" s="17">
         <v>0</v>
       </c>
-      <c r="J89" s="17">
-        <v>0</v>
-      </c>
-      <c r="K89" s="17">
-        <v>0</v>
-      </c>
-      <c r="L89" s="17">
-        <v>0</v>
-      </c>
-      <c r="M89" s="17">
-        <v>0</v>
-      </c>
-      <c r="N89" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15">
-        <v>-2752611</v>
+        <v>4222024</v>
       </c>
       <c r="F90" s="15">
-        <v>1047787</v>
+        <v>5271346</v>
       </c>
       <c r="G90" s="15">
-        <v>1704824</v>
+        <v>1097266</v>
       </c>
       <c r="H90" s="15">
-        <v>1426480</v>
+        <v>695652</v>
       </c>
       <c r="I90" s="15">
-        <v>1763464</v>
-      </c>
-      <c r="J90" s="15">
-        <v>4222024</v>
-      </c>
-      <c r="K90" s="15">
-        <v>5271346</v>
-      </c>
-      <c r="L90" s="15">
-        <v>1097266</v>
-      </c>
-      <c r="M90" s="15">
-        <v>695652</v>
-      </c>
-      <c r="N90" s="15">
         <v>1080726</v>
       </c>
     </row>

--- a/database/industries/lastic/pekavir/product/quarterly_seprated.xlsx
+++ b/database/industries/lastic/pekavir/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekavir\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekavir\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D399D6-6C57-48E2-920C-F624C7AC7AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED8FF7F-7692-4618-A460-0EB71B6705BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="53">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,18 @@
     <t>مقدار فروش</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/03</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/06</t>
   </si>
   <si>
@@ -50,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -642,16 +657,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I90"/>
+  <dimension ref="B1:N90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -660,8 +675,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -672,8 +692,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -684,8 +709,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -694,8 +724,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,8 +741,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -718,8 +758,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -728,8 +773,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -750,8 +800,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -760,10 +825,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -772,104 +842,169 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>13</v>
+      <c r="E11" s="11">
+        <v>190458</v>
       </c>
       <c r="F11" s="11">
+        <v>-181999</v>
+      </c>
+      <c r="G11" s="11">
+        <v>6512</v>
+      </c>
+      <c r="H11" s="11">
+        <v>7951</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="11">
         <v>8322</v>
       </c>
-      <c r="G11" s="11">
+      <c r="K11" s="11">
         <v>7</v>
       </c>
-      <c r="H11" s="11">
+      <c r="L11" s="11">
         <v>16417</v>
       </c>
-      <c r="I11" s="11">
+      <c r="M11" s="11">
         <v>7487</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N11" s="11">
+        <v>8597</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>33</v>
+      </c>
+      <c r="F12" s="13">
+        <v>43</v>
+      </c>
+      <c r="G12" s="13">
+        <v>7</v>
+      </c>
+      <c r="H12" s="13">
+        <v>2</v>
+      </c>
+      <c r="I12" s="13">
         <v>4</v>
       </c>
-      <c r="F12" s="13">
+      <c r="J12" s="13">
         <v>4</v>
       </c>
-      <c r="G12" s="13">
-        <v>0</v>
-      </c>
-      <c r="H12" s="13">
-        <v>0</v>
-      </c>
-      <c r="I12" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K12" s="13">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13">
+        <v>0</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0</v>
+      </c>
+      <c r="N12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11">
+      <c r="E13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="11">
         <v>21394</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15">
+        <v>190491</v>
+      </c>
+      <c r="F14" s="15">
+        <v>-181956</v>
+      </c>
+      <c r="G14" s="15">
+        <v>6519</v>
+      </c>
+      <c r="H14" s="15">
+        <v>7953</v>
+      </c>
+      <c r="I14" s="15">
         <v>21398</v>
       </c>
-      <c r="F14" s="15">
+      <c r="J14" s="15">
         <v>8326</v>
       </c>
-      <c r="G14" s="15">
+      <c r="K14" s="15">
         <v>7</v>
       </c>
-      <c r="H14" s="15">
+      <c r="L14" s="15">
         <v>16417</v>
       </c>
-      <c r="I14" s="15">
+      <c r="M14" s="15">
         <v>7487</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N14" s="15">
+        <v>8597</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -878,58 +1013,93 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11">
+        <v>0</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="11">
         <v>12</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="11">
-        <v>12</v>
-      </c>
-      <c r="I16" s="11">
+      <c r="M16" s="11">
         <v>-12</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17" s="13"/>
-      <c r="E17" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>13</v>
+      <c r="E17" s="13">
+        <v>0</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -943,15 +1113,30 @@
         <v>0</v>
       </c>
       <c r="H18" s="17">
+        <v>0</v>
+      </c>
+      <c r="I18" s="17">
+        <v>0</v>
+      </c>
+      <c r="J18" s="17">
+        <v>0</v>
+      </c>
+      <c r="K18" s="17">
+        <v>0</v>
+      </c>
+      <c r="L18" s="17">
         <v>12</v>
       </c>
-      <c r="I18" s="17">
+      <c r="M18" s="17">
         <v>-12</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N18" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -960,10 +1145,15 @@
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -982,34 +1172,64 @@
       <c r="I20" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="17">
+        <v>0</v>
+      </c>
+      <c r="K20" s="17">
+        <v>0</v>
+      </c>
+      <c r="L20" s="17">
+        <v>0</v>
+      </c>
+      <c r="M20" s="17">
+        <v>0</v>
+      </c>
+      <c r="N20" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D21" s="15"/>
-      <c r="E21" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>13</v>
+      <c r="E21" s="15">
+        <v>7139</v>
+      </c>
+      <c r="F21" s="15">
+        <v>0</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0</v>
+      </c>
+      <c r="H21" s="15">
+        <v>-27</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -1019,8 +1239,8 @@
       <c r="F22" s="17">
         <v>0</v>
       </c>
-      <c r="G22" s="17" t="s">
-        <v>13</v>
+      <c r="G22" s="17">
+        <v>0</v>
       </c>
       <c r="H22" s="17">
         <v>0</v>
@@ -1028,30 +1248,60 @@
       <c r="I22" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="17">
+        <v>0</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="17">
+        <v>0</v>
+      </c>
+      <c r="M22" s="17">
+        <v>0</v>
+      </c>
+      <c r="N22" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15">
+        <v>197630</v>
+      </c>
+      <c r="F23" s="15">
+        <v>-181956</v>
+      </c>
+      <c r="G23" s="15">
+        <v>6519</v>
+      </c>
+      <c r="H23" s="15">
+        <v>7925</v>
+      </c>
+      <c r="I23" s="15">
         <v>21398</v>
       </c>
-      <c r="F23" s="15">
+      <c r="J23" s="15">
         <v>8326</v>
       </c>
-      <c r="G23" s="15">
+      <c r="K23" s="15">
         <v>7</v>
       </c>
-      <c r="H23" s="15">
+      <c r="L23" s="15">
         <v>16429</v>
       </c>
-      <c r="I23" s="15">
+      <c r="M23" s="15">
         <v>7475</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N23" s="15">
+        <v>8597</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1060,8 +1310,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1070,8 +1325,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1080,10 +1340,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1102,8 +1367,23 @@
       <c r="I27" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1112,10 +1392,15 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -1124,104 +1409,169 @@
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>13</v>
+      <c r="E30" s="11">
+        <v>2800066</v>
       </c>
       <c r="F30" s="11">
+        <v>4280006</v>
+      </c>
+      <c r="G30" s="11">
+        <v>4134589</v>
+      </c>
+      <c r="H30" s="11">
+        <v>5733016</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="11">
         <v>5463220</v>
       </c>
-      <c r="G30" s="11">
+      <c r="K30" s="11">
         <v>5087108</v>
       </c>
-      <c r="H30" s="11">
+      <c r="L30" s="11">
         <v>6932461</v>
       </c>
-      <c r="I30" s="11">
+      <c r="M30" s="11">
         <v>6513542</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N30" s="11">
+        <v>8106599</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13">
+        <v>8831</v>
+      </c>
+      <c r="F31" s="13">
+        <v>19960</v>
+      </c>
+      <c r="G31" s="13">
+        <v>3217</v>
+      </c>
+      <c r="H31" s="13">
+        <v>762</v>
+      </c>
+      <c r="I31" s="13">
         <v>2184</v>
       </c>
-      <c r="F31" s="13">
+      <c r="J31" s="13">
         <v>1809</v>
       </c>
-      <c r="G31" s="13">
-        <v>0</v>
-      </c>
-      <c r="H31" s="13">
-        <v>0</v>
-      </c>
-      <c r="I31" s="13">
+      <c r="K31" s="13">
+        <v>0</v>
+      </c>
+      <c r="L31" s="13">
+        <v>0</v>
+      </c>
+      <c r="M31" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N31" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="11">
+      <c r="E32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="11">
         <v>14428548</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15">
+        <v>2808897</v>
+      </c>
+      <c r="F33" s="15">
+        <v>4299966</v>
+      </c>
+      <c r="G33" s="15">
+        <v>4137806</v>
+      </c>
+      <c r="H33" s="15">
+        <v>5733778</v>
+      </c>
+      <c r="I33" s="15">
         <v>14430732</v>
       </c>
-      <c r="F33" s="15">
+      <c r="J33" s="15">
         <v>5465029</v>
       </c>
-      <c r="G33" s="15">
+      <c r="K33" s="15">
         <v>5087108</v>
       </c>
-      <c r="H33" s="15">
+      <c r="L33" s="15">
         <v>6932461</v>
       </c>
-      <c r="I33" s="15">
+      <c r="M33" s="15">
         <v>6513543</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N33" s="15">
+        <v>8106599</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -1230,58 +1580,93 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D35" s="11"/>
-      <c r="E35" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>13</v>
+      <c r="E35" s="11">
+        <v>0</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="11">
+        <v>18</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="11">
         <v>25057</v>
       </c>
-      <c r="I35" s="11">
+      <c r="M35" s="11">
         <v>54297</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N35" s="11">
+        <v>-79354</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D36" s="13"/>
-      <c r="E36" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>13</v>
+      <c r="E36" s="13">
+        <v>0</v>
+      </c>
+      <c r="F36" s="13">
+        <v>0</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -1295,15 +1680,30 @@
         <v>0</v>
       </c>
       <c r="H37" s="17">
+        <v>0</v>
+      </c>
+      <c r="I37" s="17">
+        <v>0</v>
+      </c>
+      <c r="J37" s="17">
+        <v>0</v>
+      </c>
+      <c r="K37" s="17">
+        <v>0</v>
+      </c>
+      <c r="L37" s="17">
         <v>25057</v>
       </c>
-      <c r="I37" s="17">
+      <c r="M37" s="17">
         <v>54297</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N37" s="17">
+        <v>-79354</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
@@ -1312,10 +1712,15 @@
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
@@ -1334,78 +1739,138 @@
       <c r="I39" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="17">
+        <v>0</v>
+      </c>
+      <c r="K39" s="17">
+        <v>0</v>
+      </c>
+      <c r="L39" s="17">
+        <v>0</v>
+      </c>
+      <c r="M39" s="17">
+        <v>0</v>
+      </c>
+      <c r="N39" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D40" s="15"/>
-      <c r="E40" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>13</v>
+      <c r="E40" s="15">
+        <v>1954</v>
+      </c>
+      <c r="F40" s="15">
+        <v>0</v>
+      </c>
+      <c r="G40" s="15">
+        <v>0</v>
+      </c>
+      <c r="H40" s="15">
+        <v>-11860</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M40" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N40" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="17">
-        <v>0</v>
+        <v>9074</v>
       </c>
       <c r="F41" s="17">
         <v>0</v>
       </c>
-      <c r="G41" s="17" t="s">
-        <v>13</v>
+      <c r="G41" s="17">
+        <v>0</v>
       </c>
       <c r="H41" s="17">
-        <v>0</v>
+        <v>-203</v>
       </c>
       <c r="I41" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="17">
+        <v>0</v>
+      </c>
+      <c r="K41" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="17">
+        <v>0</v>
+      </c>
+      <c r="M41" s="17">
+        <v>0</v>
+      </c>
+      <c r="N41" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15">
+        <v>2819925</v>
+      </c>
+      <c r="F42" s="15">
+        <v>4299966</v>
+      </c>
+      <c r="G42" s="15">
+        <v>4137806</v>
+      </c>
+      <c r="H42" s="15">
+        <v>5721715</v>
+      </c>
+      <c r="I42" s="15">
         <v>14430732</v>
       </c>
-      <c r="F42" s="15">
+      <c r="J42" s="15">
         <v>5465029</v>
       </c>
-      <c r="G42" s="15">
+      <c r="K42" s="15">
         <v>5087108</v>
       </c>
-      <c r="H42" s="15">
+      <c r="L42" s="15">
         <v>6957518</v>
       </c>
-      <c r="I42" s="15">
+      <c r="M42" s="15">
         <v>6567840</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N42" s="15">
+        <v>8027245</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1414,8 +1879,13 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1424,8 +1894,13 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1434,10 +1909,15 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B46" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1456,8 +1936,23 @@
       <c r="I46" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1466,10 +1961,15 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -1478,82 +1978,132 @@
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D49" s="11"/>
-      <c r="E49" s="11" t="s">
-        <v>13</v>
+      <c r="E49" s="11">
+        <v>14226395</v>
       </c>
       <c r="F49" s="11">
+        <v>-23516646</v>
+      </c>
+      <c r="G49" s="11">
+        <v>634918458</v>
+      </c>
+      <c r="H49" s="11">
+        <v>721026161</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" s="11">
         <v>656479212</v>
       </c>
-      <c r="G49" s="11">
+      <c r="K49" s="11">
         <v>686797353854</v>
       </c>
-      <c r="H49" s="11">
+      <c r="L49" s="11">
         <v>422283860</v>
       </c>
-      <c r="I49" s="11">
+      <c r="M49" s="11">
         <v>869980232</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N49" s="11">
+        <v>942956729</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
+        <v>267636364</v>
+      </c>
+      <c r="F50" s="13">
+        <v>464186047</v>
+      </c>
+      <c r="G50" s="13">
+        <v>459571429</v>
+      </c>
+      <c r="H50" s="13">
+        <v>482278481</v>
+      </c>
+      <c r="I50" s="13">
         <v>546000000</v>
       </c>
-      <c r="F50" s="13">
+      <c r="J50" s="13">
         <v>452250000</v>
       </c>
-      <c r="G50" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N50" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D51" s="11"/>
-      <c r="E51" s="11">
+      <c r="E51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="11">
         <v>674420305</v>
       </c>
-      <c r="F51" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -1562,56 +2112,91 @@
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H53" s="11">
+        <v>18</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L53" s="11">
         <v>2088083333</v>
       </c>
-      <c r="I53" s="11">
+      <c r="M53" s="11">
         <v>-4524750000</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N53" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M54" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N54" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1620,8 +2205,13 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1630,8 +2220,13 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1640,10 +2235,15 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B58" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -1662,8 +2262,23 @@
       <c r="I58" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1672,10 +2287,15 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -1684,104 +2304,169 @@
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D61" s="11"/>
-      <c r="E61" s="11" t="s">
-        <v>13</v>
+      <c r="E61" s="11">
+        <v>-1762495</v>
       </c>
       <c r="F61" s="11">
+        <v>-2585669</v>
+      </c>
+      <c r="G61" s="11">
+        <v>-2706033</v>
+      </c>
+      <c r="H61" s="11">
+        <v>-3973297</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" s="11">
         <v>-14621235</v>
       </c>
-      <c r="G61" s="11">
+      <c r="K61" s="11">
         <v>-3989842</v>
       </c>
-      <c r="H61" s="11">
+      <c r="L61" s="11">
         <v>-6242002</v>
       </c>
-      <c r="I61" s="11">
+      <c r="M61" s="11">
         <v>-5414506</v>
       </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N61" s="11">
+        <v>-6246488</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
+        <v>-9643</v>
+      </c>
+      <c r="F62" s="13">
+        <v>-9473</v>
+      </c>
+      <c r="G62" s="13">
+        <v>-5293</v>
+      </c>
+      <c r="H62" s="13">
+        <v>2983</v>
+      </c>
+      <c r="I62" s="13">
         <v>-1190</v>
       </c>
-      <c r="F62" s="13">
+      <c r="J62" s="13">
         <v>-996</v>
       </c>
-      <c r="G62" s="13">
-        <v>0</v>
-      </c>
-      <c r="H62" s="13">
-        <v>0</v>
-      </c>
-      <c r="I62" s="13">
+      <c r="K62" s="13">
+        <v>0</v>
+      </c>
+      <c r="L62" s="13">
+        <v>0</v>
+      </c>
+      <c r="M62" s="13">
         <v>-1</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N62" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D63" s="11"/>
-      <c r="E63" s="11">
+      <c r="E63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="11">
         <v>-10207518</v>
       </c>
-      <c r="F63" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N63" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15">
+        <v>-1772138</v>
+      </c>
+      <c r="F64" s="15">
+        <v>-2595142</v>
+      </c>
+      <c r="G64" s="15">
+        <v>-2711326</v>
+      </c>
+      <c r="H64" s="15">
+        <v>-3970314</v>
+      </c>
+      <c r="I64" s="15">
         <v>-10208708</v>
       </c>
-      <c r="F64" s="15">
+      <c r="J64" s="15">
         <v>-14622231</v>
       </c>
-      <c r="G64" s="15">
+      <c r="K64" s="15">
         <v>-3989842</v>
       </c>
-      <c r="H64" s="15">
+      <c r="L64" s="15">
         <v>-6242002</v>
       </c>
-      <c r="I64" s="15">
+      <c r="M64" s="15">
         <v>-5414507</v>
       </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N64" s="15">
+        <v>-6246488</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
@@ -1790,58 +2475,93 @@
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D66" s="11"/>
-      <c r="E66" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>13</v>
+      <c r="E66" s="11">
+        <v>0</v>
+      </c>
+      <c r="F66" s="11">
+        <v>0</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" s="11">
+        <v>18</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L66" s="11">
         <v>-19864</v>
       </c>
-      <c r="I66" s="11">
+      <c r="M66" s="11">
         <v>-72607</v>
       </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N66" s="11">
+        <v>92471</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D67" s="13"/>
-      <c r="E67" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>13</v>
+      <c r="E67" s="13">
+        <v>0</v>
+      </c>
+      <c r="F67" s="13">
+        <v>0</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H67" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J67" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L67" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M67" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N67" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
@@ -1855,15 +2575,30 @@
         <v>0</v>
       </c>
       <c r="H68" s="17">
+        <v>0</v>
+      </c>
+      <c r="I68" s="17">
+        <v>0</v>
+      </c>
+      <c r="J68" s="17">
+        <v>0</v>
+      </c>
+      <c r="K68" s="17">
+        <v>0</v>
+      </c>
+      <c r="L68" s="17">
         <v>-19864</v>
       </c>
-      <c r="I68" s="17">
+      <c r="M68" s="17">
         <v>-72607</v>
       </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N68" s="17">
+        <v>92471</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="18" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
@@ -1872,10 +2607,15 @@
       <c r="G69" s="19"/>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
@@ -1894,37 +2634,67 @@
       <c r="I70" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="17">
+        <v>0</v>
+      </c>
+      <c r="K70" s="17">
+        <v>0</v>
+      </c>
+      <c r="L70" s="17">
+        <v>0</v>
+      </c>
+      <c r="M70" s="17">
+        <v>0</v>
+      </c>
+      <c r="N70" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D71" s="15"/>
-      <c r="E71" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="15" t="s">
-        <v>13</v>
+      <c r="E71" s="15">
+        <v>0</v>
+      </c>
+      <c r="F71" s="15">
+        <v>0</v>
+      </c>
+      <c r="G71" s="15">
+        <v>0</v>
+      </c>
+      <c r="H71" s="15">
+        <v>11842</v>
       </c>
       <c r="I71" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J71" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L71" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M71" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N71" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="17">
@@ -1933,8 +2703,8 @@
       <c r="F72" s="17">
         <v>0</v>
       </c>
-      <c r="G72" s="17" t="s">
-        <v>13</v>
+      <c r="G72" s="17">
+        <v>0</v>
       </c>
       <c r="H72" s="17">
         <v>0</v>
@@ -1942,30 +2712,60 @@
       <c r="I72" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="17">
+        <v>0</v>
+      </c>
+      <c r="K72" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L72" s="17">
+        <v>0</v>
+      </c>
+      <c r="M72" s="17">
+        <v>0</v>
+      </c>
+      <c r="N72" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15">
+        <v>-1772138</v>
+      </c>
+      <c r="F73" s="15">
+        <v>-2595142</v>
+      </c>
+      <c r="G73" s="15">
+        <v>-2711326</v>
+      </c>
+      <c r="H73" s="15">
+        <v>-3958472</v>
+      </c>
+      <c r="I73" s="15">
         <v>-10208708</v>
       </c>
-      <c r="F73" s="15">
+      <c r="J73" s="15">
         <v>-14622231</v>
       </c>
-      <c r="G73" s="15">
+      <c r="K73" s="15">
         <v>-3989842</v>
       </c>
-      <c r="H73" s="15">
+      <c r="L73" s="15">
         <v>-6261866</v>
       </c>
-      <c r="I73" s="15">
+      <c r="M73" s="15">
         <v>-5487114</v>
       </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N73" s="15">
+        <v>-6154017</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1974,8 +2774,13 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1984,8 +2789,13 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1994,10 +2804,15 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -2016,8 +2831,23 @@
       <c r="I77" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L77" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M77" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2026,10 +2856,15 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -2038,104 +2873,169 @@
       <c r="G79" s="9"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D80" s="11"/>
-      <c r="E80" s="11" t="s">
-        <v>13</v>
+      <c r="E80" s="11">
+        <v>1048598</v>
       </c>
       <c r="F80" s="11">
+        <v>1694337</v>
+      </c>
+      <c r="G80" s="11">
+        <v>1428556</v>
+      </c>
+      <c r="H80" s="11">
+        <v>1759719</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" s="11">
         <v>5270533</v>
       </c>
-      <c r="G80" s="11">
+      <c r="K80" s="11">
         <v>1097266</v>
       </c>
-      <c r="H80" s="11">
+      <c r="L80" s="11">
         <v>690459</v>
       </c>
-      <c r="I80" s="11">
+      <c r="M80" s="11">
         <v>1099036</v>
       </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N80" s="11">
+        <v>1860111</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
+        <v>-811</v>
+      </c>
+      <c r="F81" s="13">
+        <v>10487</v>
+      </c>
+      <c r="G81" s="13">
+        <v>-2076</v>
+      </c>
+      <c r="H81" s="13">
+        <v>3745</v>
+      </c>
+      <c r="I81" s="13">
         <v>994</v>
       </c>
-      <c r="F81" s="13">
+      <c r="J81" s="13">
         <v>813</v>
       </c>
-      <c r="G81" s="13">
-        <v>0</v>
-      </c>
-      <c r="H81" s="13">
-        <v>0</v>
-      </c>
-      <c r="I81" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K81" s="13">
+        <v>0</v>
+      </c>
+      <c r="L81" s="13">
+        <v>0</v>
+      </c>
+      <c r="M81" s="13">
+        <v>0</v>
+      </c>
+      <c r="N81" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D82" s="11"/>
-      <c r="E82" s="11">
+      <c r="E82" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I82" s="11">
         <v>4221030</v>
       </c>
-      <c r="F82" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H82" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I82" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K82" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M82" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N82" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15">
+        <v>1047787</v>
+      </c>
+      <c r="F83" s="15">
+        <v>1704824</v>
+      </c>
+      <c r="G83" s="15">
+        <v>1426480</v>
+      </c>
+      <c r="H83" s="15">
+        <v>1763464</v>
+      </c>
+      <c r="I83" s="15">
         <v>4222024</v>
       </c>
-      <c r="F83" s="15">
+      <c r="J83" s="15">
         <v>5271346</v>
       </c>
-      <c r="G83" s="15">
+      <c r="K83" s="15">
         <v>1097266</v>
       </c>
-      <c r="H83" s="15">
+      <c r="L83" s="15">
         <v>690459</v>
       </c>
-      <c r="I83" s="15">
+      <c r="M83" s="15">
         <v>1099036</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N83" s="15">
+        <v>1860111</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
@@ -2144,58 +3044,93 @@
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D85" s="11"/>
-      <c r="E85" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>13</v>
+      <c r="E85" s="11">
+        <v>0</v>
+      </c>
+      <c r="F85" s="11">
+        <v>0</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" s="11">
+        <v>18</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K85" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L85" s="11">
         <v>5193</v>
       </c>
-      <c r="I85" s="11">
+      <c r="M85" s="11">
         <v>-18310</v>
       </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N85" s="11">
+        <v>13117</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D86" s="13"/>
-      <c r="E86" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="13" t="s">
-        <v>13</v>
+      <c r="E86" s="13">
+        <v>0</v>
+      </c>
+      <c r="F86" s="13">
+        <v>0</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N86" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
@@ -2209,15 +3144,30 @@
         <v>0</v>
       </c>
       <c r="H87" s="17">
+        <v>0</v>
+      </c>
+      <c r="I87" s="17">
+        <v>0</v>
+      </c>
+      <c r="J87" s="17">
+        <v>0</v>
+      </c>
+      <c r="K87" s="17">
+        <v>0</v>
+      </c>
+      <c r="L87" s="17">
         <v>5193</v>
       </c>
-      <c r="I87" s="17">
+      <c r="M87" s="17">
         <v>-18310</v>
       </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N87" s="17">
+        <v>13117</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="18" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C88" s="19"/>
       <c r="D88" s="19"/>
@@ -2226,10 +3176,15 @@
       <c r="G88" s="19"/>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="19"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C89" s="17"/>
       <c r="D89" s="17"/>
@@ -2248,27 +3203,57 @@
       <c r="I89" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="17">
+        <v>0</v>
+      </c>
+      <c r="K89" s="17">
+        <v>0</v>
+      </c>
+      <c r="L89" s="17">
+        <v>0</v>
+      </c>
+      <c r="M89" s="17">
+        <v>0</v>
+      </c>
+      <c r="N89" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15">
+        <v>1047787</v>
+      </c>
+      <c r="F90" s="15">
+        <v>1704824</v>
+      </c>
+      <c r="G90" s="15">
+        <v>1426480</v>
+      </c>
+      <c r="H90" s="15">
+        <v>1763464</v>
+      </c>
+      <c r="I90" s="15">
         <v>4222024</v>
       </c>
-      <c r="F90" s="15">
+      <c r="J90" s="15">
         <v>5271346</v>
       </c>
-      <c r="G90" s="15">
+      <c r="K90" s="15">
         <v>1097266</v>
       </c>
-      <c r="H90" s="15">
+      <c r="L90" s="15">
         <v>695652</v>
       </c>
-      <c r="I90" s="15">
+      <c r="M90" s="15">
         <v>1080726</v>
+      </c>
+      <c r="N90" s="15">
+        <v>1873228</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/lastic/pekavir/product/quarterly_seprated.xlsx
+++ b/database/industries/lastic/pekavir/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekavir\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekavir\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED8FF7F-7692-4618-A460-0EB71B6705BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966BC542-5BDB-49B3-AD92-B37414440019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="53">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل چهارم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -661,12 +661,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -681,7 +681,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -698,7 +698,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -715,7 +715,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -730,7 +730,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -747,7 +747,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -764,7 +764,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -779,7 +779,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -816,7 +816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -831,7 +831,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -848,7 +848,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -857,37 +857,37 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>190458</v>
+        <v>-181999</v>
       </c>
       <c r="F11" s="11">
-        <v>-181999</v>
+        <v>6512</v>
       </c>
       <c r="G11" s="11">
-        <v>6512</v>
-      </c>
-      <c r="H11" s="11">
         <v>7951</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>18</v>
+      <c r="H11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="11">
+        <v>8322</v>
       </c>
       <c r="J11" s="11">
-        <v>8322</v>
+        <v>7</v>
       </c>
       <c r="K11" s="11">
-        <v>7</v>
+        <v>16417</v>
       </c>
       <c r="L11" s="11">
-        <v>16417</v>
+        <v>7487</v>
       </c>
       <c r="M11" s="11">
-        <v>7487</v>
+        <v>8597</v>
       </c>
       <c r="N11" s="11">
-        <v>8597</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7678</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -896,22 +896,22 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F12" s="13">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="G12" s="13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H12" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I12" s="13">
         <v>4</v>
       </c>
       <c r="J12" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K12" s="13">
         <v>0</v>
@@ -922,11 +922,11 @@
       <c r="M12" s="13">
         <v>0</v>
       </c>
-      <c r="N12" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N12" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -943,12 +943,12 @@
       <c r="G13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="11">
+      <c r="H13" s="11">
         <v>21394</v>
       </c>
+      <c r="I13" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="J13" s="11" t="s">
         <v>18</v>
       </c>
@@ -965,44 +965,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15">
-        <v>190491</v>
+        <v>-181956</v>
       </c>
       <c r="F14" s="15">
-        <v>-181956</v>
+        <v>6519</v>
       </c>
       <c r="G14" s="15">
-        <v>6519</v>
+        <v>7953</v>
       </c>
       <c r="H14" s="15">
-        <v>7953</v>
+        <v>21398</v>
       </c>
       <c r="I14" s="15">
-        <v>21398</v>
+        <v>8326</v>
       </c>
       <c r="J14" s="15">
-        <v>8326</v>
+        <v>7</v>
       </c>
       <c r="K14" s="15">
-        <v>7</v>
+        <v>16417</v>
       </c>
       <c r="L14" s="15">
-        <v>16417</v>
+        <v>7487</v>
       </c>
       <c r="M14" s="15">
-        <v>7487</v>
+        <v>8597</v>
       </c>
       <c r="N14" s="15">
-        <v>8597</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7678</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
         <v>22</v>
       </c>
@@ -1019,7 +1019,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>16</v>
       </c>
@@ -1030,8 +1030,8 @@
       <c r="E16" s="11">
         <v>0</v>
       </c>
-      <c r="F16" s="11">
-        <v>0</v>
+      <c r="F16" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>18</v>
@@ -1045,20 +1045,20 @@
       <c r="J16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="11" t="s">
-        <v>18</v>
+      <c r="K16" s="11">
+        <v>12</v>
       </c>
       <c r="L16" s="11">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="M16" s="11">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="N16" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>19</v>
       </c>
@@ -1069,8 +1069,8 @@
       <c r="E17" s="13">
         <v>0</v>
       </c>
-      <c r="F17" s="13">
-        <v>0</v>
+      <c r="F17" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>18</v>
@@ -1097,7 +1097,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>23</v>
       </c>
@@ -1122,19 +1122,19 @@
         <v>0</v>
       </c>
       <c r="K18" s="17">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L18" s="17">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="M18" s="17">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="N18" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="18" t="s">
         <v>24</v>
       </c>
@@ -1151,7 +1151,7 @@
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>25</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>26</v>
       </c>
@@ -1197,17 +1197,17 @@
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15">
-        <v>7139</v>
+        <v>0</v>
       </c>
       <c r="F21" s="15">
         <v>0</v>
       </c>
       <c r="G21" s="15">
-        <v>0</v>
-      </c>
-      <c r="H21" s="15">
         <v>-27</v>
       </c>
+      <c r="H21" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="I21" s="15" t="s">
         <v>18</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>28</v>
       </c>
@@ -1248,11 +1248,11 @@
       <c r="I22" s="17">
         <v>0</v>
       </c>
-      <c r="J22" s="17">
-        <v>0</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>18</v>
+      <c r="J22" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="17">
+        <v>0</v>
       </c>
       <c r="L22" s="17">
         <v>0</v>
@@ -1264,44 +1264,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15">
-        <v>197630</v>
+        <v>-181956</v>
       </c>
       <c r="F23" s="15">
-        <v>-181956</v>
+        <v>6519</v>
       </c>
       <c r="G23" s="15">
-        <v>6519</v>
+        <v>7925</v>
       </c>
       <c r="H23" s="15">
-        <v>7925</v>
+        <v>21398</v>
       </c>
       <c r="I23" s="15">
-        <v>21398</v>
+        <v>8326</v>
       </c>
       <c r="J23" s="15">
-        <v>8326</v>
+        <v>7</v>
       </c>
       <c r="K23" s="15">
-        <v>7</v>
+        <v>16429</v>
       </c>
       <c r="L23" s="15">
-        <v>16429</v>
+        <v>7475</v>
       </c>
       <c r="M23" s="15">
-        <v>7475</v>
+        <v>8597</v>
       </c>
       <c r="N23" s="15">
-        <v>8597</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7678</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1316,7 +1316,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1331,7 +1331,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1346,7 +1346,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>30</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1398,7 +1398,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>31</v>
       </c>
@@ -1415,7 +1415,7 @@
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>16</v>
       </c>
@@ -1424,37 +1424,37 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>2800066</v>
+        <v>4280006</v>
       </c>
       <c r="F30" s="11">
-        <v>4280006</v>
+        <v>4134589</v>
       </c>
       <c r="G30" s="11">
-        <v>4134589</v>
-      </c>
-      <c r="H30" s="11">
         <v>5733016</v>
       </c>
-      <c r="I30" s="11" t="s">
-        <v>18</v>
+      <c r="H30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="11">
+        <v>5463220</v>
       </c>
       <c r="J30" s="11">
-        <v>5463220</v>
+        <v>5087108</v>
       </c>
       <c r="K30" s="11">
-        <v>5087108</v>
+        <v>6932461</v>
       </c>
       <c r="L30" s="11">
-        <v>6932461</v>
+        <v>6513542</v>
       </c>
       <c r="M30" s="11">
-        <v>6513542</v>
+        <v>8106599</v>
       </c>
       <c r="N30" s="11">
-        <v>8106599</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7803958</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>19</v>
       </c>
@@ -1463,37 +1463,37 @@
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13">
-        <v>8831</v>
+        <v>19960</v>
       </c>
       <c r="F31" s="13">
-        <v>19960</v>
+        <v>3217</v>
       </c>
       <c r="G31" s="13">
-        <v>3217</v>
+        <v>762</v>
       </c>
       <c r="H31" s="13">
-        <v>762</v>
+        <v>2184</v>
       </c>
       <c r="I31" s="13">
-        <v>2184</v>
+        <v>1809</v>
       </c>
       <c r="J31" s="13">
-        <v>1809</v>
+        <v>0</v>
       </c>
       <c r="K31" s="13">
         <v>0</v>
       </c>
       <c r="L31" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="13">
-        <v>1</v>
-      </c>
-      <c r="N31" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>20</v>
       </c>
@@ -1510,12 +1510,12 @@
       <c r="G32" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="11">
+      <c r="H32" s="11">
         <v>14428548</v>
       </c>
+      <c r="I32" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="J32" s="11" t="s">
         <v>18</v>
       </c>
@@ -1532,44 +1532,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15">
-        <v>2808897</v>
+        <v>4299966</v>
       </c>
       <c r="F33" s="15">
-        <v>4299966</v>
+        <v>4137806</v>
       </c>
       <c r="G33" s="15">
-        <v>4137806</v>
+        <v>5733778</v>
       </c>
       <c r="H33" s="15">
-        <v>5733778</v>
+        <v>14430732</v>
       </c>
       <c r="I33" s="15">
-        <v>14430732</v>
+        <v>5465029</v>
       </c>
       <c r="J33" s="15">
-        <v>5465029</v>
+        <v>5087108</v>
       </c>
       <c r="K33" s="15">
-        <v>5087108</v>
+        <v>6932461</v>
       </c>
       <c r="L33" s="15">
-        <v>6932461</v>
+        <v>6513543</v>
       </c>
       <c r="M33" s="15">
-        <v>6513543</v>
+        <v>8106599</v>
       </c>
       <c r="N33" s="15">
-        <v>8106599</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7803958</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>33</v>
       </c>
@@ -1586,7 +1586,7 @@
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>16</v>
       </c>
@@ -1597,8 +1597,8 @@
       <c r="E35" s="11">
         <v>0</v>
       </c>
-      <c r="F35" s="11">
-        <v>0</v>
+      <c r="F35" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>18</v>
@@ -1612,20 +1612,20 @@
       <c r="J35" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K35" s="11" t="s">
-        <v>18</v>
+      <c r="K35" s="11">
+        <v>25057</v>
       </c>
       <c r="L35" s="11">
-        <v>25057</v>
+        <v>54297</v>
       </c>
       <c r="M35" s="11">
-        <v>54297</v>
+        <v>-79354</v>
       </c>
       <c r="N35" s="11">
-        <v>-79354</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>19</v>
       </c>
@@ -1636,8 +1636,8 @@
       <c r="E36" s="13">
         <v>0</v>
       </c>
-      <c r="F36" s="13">
-        <v>0</v>
+      <c r="F36" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G36" s="13" t="s">
         <v>18</v>
@@ -1664,7 +1664,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>23</v>
       </c>
@@ -1689,19 +1689,19 @@
         <v>0</v>
       </c>
       <c r="K37" s="17">
-        <v>0</v>
+        <v>25057</v>
       </c>
       <c r="L37" s="17">
-        <v>25057</v>
+        <v>54297</v>
       </c>
       <c r="M37" s="17">
-        <v>54297</v>
+        <v>-79354</v>
       </c>
       <c r="N37" s="17">
-        <v>-79354</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="18" t="s">
         <v>34</v>
       </c>
@@ -1718,7 +1718,7 @@
       <c r="M38" s="19"/>
       <c r="N38" s="19"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="16" t="s">
         <v>25</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="s">
         <v>26</v>
       </c>
@@ -1764,17 +1764,17 @@
       </c>
       <c r="D40" s="15"/>
       <c r="E40" s="15">
-        <v>1954</v>
+        <v>0</v>
       </c>
       <c r="F40" s="15">
         <v>0</v>
       </c>
       <c r="G40" s="15">
-        <v>0</v>
-      </c>
-      <c r="H40" s="15">
         <v>-11860</v>
       </c>
+      <c r="H40" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="I40" s="15" t="s">
         <v>18</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="16" t="s">
         <v>28</v>
       </c>
@@ -1803,25 +1803,25 @@
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="17">
-        <v>9074</v>
+        <v>0</v>
       </c>
       <c r="F41" s="17">
         <v>0</v>
       </c>
       <c r="G41" s="17">
-        <v>0</v>
+        <v>-203</v>
       </c>
       <c r="H41" s="17">
-        <v>-203</v>
+        <v>0</v>
       </c>
       <c r="I41" s="17">
         <v>0</v>
       </c>
-      <c r="J41" s="17">
-        <v>0</v>
-      </c>
-      <c r="K41" s="17" t="s">
-        <v>18</v>
+      <c r="J41" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="17">
+        <v>0</v>
       </c>
       <c r="L41" s="17">
         <v>0</v>
@@ -1833,44 +1833,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15">
-        <v>2819925</v>
+        <v>4299966</v>
       </c>
       <c r="F42" s="15">
-        <v>4299966</v>
+        <v>4137806</v>
       </c>
       <c r="G42" s="15">
-        <v>4137806</v>
+        <v>5721715</v>
       </c>
       <c r="H42" s="15">
-        <v>5721715</v>
+        <v>14430732</v>
       </c>
       <c r="I42" s="15">
-        <v>14430732</v>
+        <v>5465029</v>
       </c>
       <c r="J42" s="15">
-        <v>5465029</v>
+        <v>5087108</v>
       </c>
       <c r="K42" s="15">
-        <v>5087108</v>
+        <v>6957518</v>
       </c>
       <c r="L42" s="15">
-        <v>6957518</v>
+        <v>6567840</v>
       </c>
       <c r="M42" s="15">
-        <v>6567840</v>
+        <v>8027245</v>
       </c>
       <c r="N42" s="15">
-        <v>8027245</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7803958</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1885,7 +1885,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1900,7 +1900,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1915,7 +1915,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>35</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1967,7 +1967,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>36</v>
       </c>
@@ -1984,7 +1984,7 @@
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>16</v>
       </c>
@@ -1993,37 +1993,37 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
-        <v>14226395</v>
+        <v>-23516646</v>
       </c>
       <c r="F49" s="11">
-        <v>-23516646</v>
+        <v>634918458</v>
       </c>
       <c r="G49" s="11">
-        <v>634918458</v>
-      </c>
-      <c r="H49" s="11">
         <v>721026161</v>
       </c>
-      <c r="I49" s="11" t="s">
-        <v>18</v>
+      <c r="H49" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="11">
+        <v>656479212</v>
       </c>
       <c r="J49" s="11">
-        <v>656479212</v>
+        <v>686797353854</v>
       </c>
       <c r="K49" s="11">
-        <v>686797353854</v>
+        <v>422283860</v>
       </c>
       <c r="L49" s="11">
-        <v>422283860</v>
+        <v>869980232</v>
       </c>
       <c r="M49" s="11">
-        <v>869980232</v>
+        <v>942956729</v>
       </c>
       <c r="N49" s="11">
-        <v>942956729</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1016411672</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>19</v>
       </c>
@@ -2032,23 +2032,23 @@
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>267636364</v>
+        <v>464186047</v>
       </c>
       <c r="F50" s="13">
-        <v>464186047</v>
+        <v>459571429</v>
       </c>
       <c r="G50" s="13">
-        <v>459571429</v>
+        <v>482278481</v>
       </c>
       <c r="H50" s="13">
-        <v>482278481</v>
+        <v>546000000</v>
       </c>
       <c r="I50" s="13">
-        <v>546000000</v>
-      </c>
-      <c r="J50" s="13">
         <v>452250000</v>
       </c>
+      <c r="J50" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K50" s="13" t="s">
         <v>18</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>20</v>
       </c>
@@ -2079,12 +2079,12 @@
       <c r="G51" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H51" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" s="11">
+      <c r="H51" s="11">
         <v>674420305</v>
       </c>
+      <c r="I51" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="J51" s="11" t="s">
         <v>18</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>38</v>
       </c>
@@ -2118,7 +2118,7 @@
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>16</v>
       </c>
@@ -2144,20 +2144,20 @@
       <c r="J53" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K53" s="11" t="s">
-        <v>18</v>
+      <c r="K53" s="11">
+        <v>2088083333</v>
       </c>
       <c r="L53" s="11">
-        <v>2088083333</v>
-      </c>
-      <c r="M53" s="11">
         <v>-4524750000</v>
       </c>
+      <c r="M53" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="N53" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>19</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2211,7 +2211,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2226,7 +2226,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2241,7 +2241,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>39</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2293,7 +2293,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>40</v>
       </c>
@@ -2310,7 +2310,7 @@
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>16</v>
       </c>
@@ -2319,37 +2319,37 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>-1762495</v>
+        <v>-2585669</v>
       </c>
       <c r="F61" s="11">
-        <v>-2585669</v>
+        <v>-2706033</v>
       </c>
       <c r="G61" s="11">
-        <v>-2706033</v>
-      </c>
-      <c r="H61" s="11">
         <v>-3973297</v>
       </c>
-      <c r="I61" s="11" t="s">
-        <v>18</v>
+      <c r="H61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="11">
+        <v>-14621235</v>
       </c>
       <c r="J61" s="11">
-        <v>-14621235</v>
+        <v>-3989842</v>
       </c>
       <c r="K61" s="11">
-        <v>-3989842</v>
+        <v>-6242002</v>
       </c>
       <c r="L61" s="11">
-        <v>-6242002</v>
+        <v>-5414506</v>
       </c>
       <c r="M61" s="11">
-        <v>-5414506</v>
+        <v>-6247903</v>
       </c>
       <c r="N61" s="11">
-        <v>-6246488</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5698607</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>19</v>
       </c>
@@ -2358,37 +2358,37 @@
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
-        <v>-9643</v>
+        <v>-9473</v>
       </c>
       <c r="F62" s="13">
-        <v>-9473</v>
+        <v>-5293</v>
       </c>
       <c r="G62" s="13">
-        <v>-5293</v>
+        <v>2983</v>
       </c>
       <c r="H62" s="13">
-        <v>2983</v>
+        <v>-1190</v>
       </c>
       <c r="I62" s="13">
-        <v>-1190</v>
+        <v>-996</v>
       </c>
       <c r="J62" s="13">
-        <v>-996</v>
+        <v>0</v>
       </c>
       <c r="K62" s="13">
         <v>0</v>
       </c>
       <c r="L62" s="13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M62" s="13">
-        <v>-1</v>
-      </c>
-      <c r="N62" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N62" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>20</v>
       </c>
@@ -2405,12 +2405,12 @@
       <c r="G63" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H63" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I63" s="11">
+      <c r="H63" s="11">
         <v>-10207518</v>
       </c>
+      <c r="I63" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="J63" s="11" t="s">
         <v>18</v>
       </c>
@@ -2427,44 +2427,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15">
-        <v>-1772138</v>
+        <v>-2595142</v>
       </c>
       <c r="F64" s="15">
-        <v>-2595142</v>
+        <v>-2711326</v>
       </c>
       <c r="G64" s="15">
-        <v>-2711326</v>
+        <v>-3970314</v>
       </c>
       <c r="H64" s="15">
-        <v>-3970314</v>
+        <v>-10208708</v>
       </c>
       <c r="I64" s="15">
-        <v>-10208708</v>
+        <v>-14622231</v>
       </c>
       <c r="J64" s="15">
-        <v>-14622231</v>
+        <v>-3989842</v>
       </c>
       <c r="K64" s="15">
-        <v>-3989842</v>
+        <v>-6242002</v>
       </c>
       <c r="L64" s="15">
-        <v>-6242002</v>
+        <v>-5414507</v>
       </c>
       <c r="M64" s="15">
-        <v>-5414507</v>
+        <v>-6247903</v>
       </c>
       <c r="N64" s="15">
-        <v>-6246488</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5698607</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>42</v>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>16</v>
       </c>
@@ -2492,8 +2492,8 @@
       <c r="E66" s="11">
         <v>0</v>
       </c>
-      <c r="F66" s="11">
-        <v>0</v>
+      <c r="F66" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>18</v>
@@ -2507,20 +2507,20 @@
       <c r="J66" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K66" s="11" t="s">
-        <v>18</v>
+      <c r="K66" s="11">
+        <v>-19864</v>
       </c>
       <c r="L66" s="11">
-        <v>-19864</v>
+        <v>-72607</v>
       </c>
       <c r="M66" s="11">
-        <v>-72607</v>
+        <v>92471</v>
       </c>
       <c r="N66" s="11">
-        <v>92471</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>19</v>
       </c>
@@ -2531,8 +2531,8 @@
       <c r="E67" s="13">
         <v>0</v>
       </c>
-      <c r="F67" s="13">
-        <v>0</v>
+      <c r="F67" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G67" s="13" t="s">
         <v>18</v>
@@ -2559,7 +2559,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="16" t="s">
         <v>43</v>
       </c>
@@ -2584,19 +2584,19 @@
         <v>0</v>
       </c>
       <c r="K68" s="17">
-        <v>0</v>
+        <v>-19864</v>
       </c>
       <c r="L68" s="17">
-        <v>-19864</v>
+        <v>-72607</v>
       </c>
       <c r="M68" s="17">
-        <v>-72607</v>
+        <v>92471</v>
       </c>
       <c r="N68" s="17">
-        <v>92471</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="18" t="s">
         <v>44</v>
       </c>
@@ -2613,7 +2613,7 @@
       <c r="M69" s="19"/>
       <c r="N69" s="19"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="16" t="s">
         <v>45</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="14" t="s">
         <v>26</v>
       </c>
@@ -2665,11 +2665,11 @@
         <v>0</v>
       </c>
       <c r="G71" s="15">
-        <v>0</v>
-      </c>
-      <c r="H71" s="15">
         <v>11842</v>
       </c>
+      <c r="H71" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="I71" s="15" t="s">
         <v>18</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="16" t="s">
         <v>28</v>
       </c>
@@ -2712,11 +2712,11 @@
       <c r="I72" s="17">
         <v>0</v>
       </c>
-      <c r="J72" s="17">
-        <v>0</v>
-      </c>
-      <c r="K72" s="17" t="s">
-        <v>18</v>
+      <c r="J72" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K72" s="17">
+        <v>0</v>
       </c>
       <c r="L72" s="17">
         <v>0</v>
@@ -2728,44 +2728,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15">
-        <v>-1772138</v>
+        <v>-2595142</v>
       </c>
       <c r="F73" s="15">
-        <v>-2595142</v>
+        <v>-2711326</v>
       </c>
       <c r="G73" s="15">
-        <v>-2711326</v>
+        <v>-3958472</v>
       </c>
       <c r="H73" s="15">
-        <v>-3958472</v>
+        <v>-10208708</v>
       </c>
       <c r="I73" s="15">
-        <v>-10208708</v>
+        <v>-14622231</v>
       </c>
       <c r="J73" s="15">
-        <v>-14622231</v>
+        <v>-3989842</v>
       </c>
       <c r="K73" s="15">
-        <v>-3989842</v>
+        <v>-6261866</v>
       </c>
       <c r="L73" s="15">
-        <v>-6261866</v>
+        <v>-5487114</v>
       </c>
       <c r="M73" s="15">
-        <v>-5487114</v>
+        <v>-6155432</v>
       </c>
       <c r="N73" s="15">
-        <v>-6154017</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5698607</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2780,7 +2780,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2795,7 +2795,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2810,7 +2810,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
         <v>46</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2862,7 +2862,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>47</v>
       </c>
@@ -2879,7 +2879,7 @@
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>16</v>
       </c>
@@ -2888,37 +2888,37 @@
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11">
-        <v>1048598</v>
+        <v>1694337</v>
       </c>
       <c r="F80" s="11">
-        <v>1694337</v>
+        <v>1428556</v>
       </c>
       <c r="G80" s="11">
-        <v>1428556</v>
-      </c>
-      <c r="H80" s="11">
         <v>1759719</v>
       </c>
-      <c r="I80" s="11" t="s">
-        <v>18</v>
+      <c r="H80" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" s="11">
+        <v>5270533</v>
       </c>
       <c r="J80" s="11">
-        <v>5270533</v>
+        <v>1097266</v>
       </c>
       <c r="K80" s="11">
-        <v>1097266</v>
+        <v>690459</v>
       </c>
       <c r="L80" s="11">
-        <v>690459</v>
+        <v>1099036</v>
       </c>
       <c r="M80" s="11">
-        <v>1099036</v>
+        <v>1858696</v>
       </c>
       <c r="N80" s="11">
-        <v>1860111</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2105351</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="12" t="s">
         <v>19</v>
       </c>
@@ -2927,22 +2927,22 @@
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
-        <v>-811</v>
+        <v>10487</v>
       </c>
       <c r="F81" s="13">
-        <v>10487</v>
+        <v>-2076</v>
       </c>
       <c r="G81" s="13">
-        <v>-2076</v>
+        <v>3745</v>
       </c>
       <c r="H81" s="13">
-        <v>3745</v>
+        <v>994</v>
       </c>
       <c r="I81" s="13">
-        <v>994</v>
+        <v>813</v>
       </c>
       <c r="J81" s="13">
-        <v>813</v>
+        <v>0</v>
       </c>
       <c r="K81" s="13">
         <v>0</v>
@@ -2953,11 +2953,11 @@
       <c r="M81" s="13">
         <v>0</v>
       </c>
-      <c r="N81" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N81" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>20</v>
       </c>
@@ -2974,12 +2974,12 @@
       <c r="G82" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H82" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I82" s="11">
+      <c r="H82" s="11">
         <v>4221030</v>
       </c>
+      <c r="I82" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="J82" s="11" t="s">
         <v>18</v>
       </c>
@@ -2996,44 +2996,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="14" t="s">
         <v>48</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15">
-        <v>1047787</v>
+        <v>1704824</v>
       </c>
       <c r="F83" s="15">
-        <v>1704824</v>
+        <v>1426480</v>
       </c>
       <c r="G83" s="15">
-        <v>1426480</v>
+        <v>1763464</v>
       </c>
       <c r="H83" s="15">
-        <v>1763464</v>
+        <v>4222024</v>
       </c>
       <c r="I83" s="15">
-        <v>4222024</v>
+        <v>5271346</v>
       </c>
       <c r="J83" s="15">
-        <v>5271346</v>
+        <v>1097266</v>
       </c>
       <c r="K83" s="15">
-        <v>1097266</v>
+        <v>690459</v>
       </c>
       <c r="L83" s="15">
-        <v>690459</v>
+        <v>1099036</v>
       </c>
       <c r="M83" s="15">
-        <v>1099036</v>
+        <v>1858696</v>
       </c>
       <c r="N83" s="15">
-        <v>1860111</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2105351</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>49</v>
       </c>
@@ -3050,7 +3050,7 @@
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>16</v>
       </c>
@@ -3061,8 +3061,8 @@
       <c r="E85" s="11">
         <v>0</v>
       </c>
-      <c r="F85" s="11">
-        <v>0</v>
+      <c r="F85" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G85" s="11" t="s">
         <v>18</v>
@@ -3076,20 +3076,20 @@
       <c r="J85" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K85" s="11" t="s">
-        <v>18</v>
+      <c r="K85" s="11">
+        <v>5193</v>
       </c>
       <c r="L85" s="11">
-        <v>5193</v>
+        <v>-18310</v>
       </c>
       <c r="M85" s="11">
-        <v>-18310</v>
+        <v>13117</v>
       </c>
       <c r="N85" s="11">
-        <v>13117</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>19</v>
       </c>
@@ -3100,8 +3100,8 @@
       <c r="E86" s="13">
         <v>0</v>
       </c>
-      <c r="F86" s="13">
-        <v>0</v>
+      <c r="F86" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G86" s="13" t="s">
         <v>18</v>
@@ -3128,7 +3128,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="16" t="s">
         <v>50</v>
       </c>
@@ -3153,19 +3153,19 @@
         <v>0</v>
       </c>
       <c r="K87" s="17">
-        <v>0</v>
+        <v>5193</v>
       </c>
       <c r="L87" s="17">
-        <v>5193</v>
+        <v>-18310</v>
       </c>
       <c r="M87" s="17">
-        <v>-18310</v>
+        <v>13117</v>
       </c>
       <c r="N87" s="17">
-        <v>13117</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="18" t="s">
         <v>51</v>
       </c>
@@ -3182,7 +3182,7 @@
       <c r="M88" s="19"/>
       <c r="N88" s="19"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="16" t="s">
         <v>52</v>
       </c>
@@ -3219,41 +3219,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15">
-        <v>1047787</v>
+        <v>1704824</v>
       </c>
       <c r="F90" s="15">
-        <v>1704824</v>
+        <v>1426480</v>
       </c>
       <c r="G90" s="15">
-        <v>1426480</v>
+        <v>1763464</v>
       </c>
       <c r="H90" s="15">
-        <v>1763464</v>
+        <v>4222024</v>
       </c>
       <c r="I90" s="15">
-        <v>4222024</v>
+        <v>5271346</v>
       </c>
       <c r="J90" s="15">
-        <v>5271346</v>
+        <v>1097266</v>
       </c>
       <c r="K90" s="15">
-        <v>1097266</v>
+        <v>695652</v>
       </c>
       <c r="L90" s="15">
-        <v>695652</v>
+        <v>1080726</v>
       </c>
       <c r="M90" s="15">
-        <v>1080726</v>
+        <v>1871813</v>
       </c>
       <c r="N90" s="15">
-        <v>1873228</v>
+        <v>2105351</v>
       </c>
     </row>
   </sheetData>
